--- a/data/rom_pasv.xlsx
+++ b/data/rom_pasv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xli239/Dropbox/My Mac (pbs-jc-lap5.local)/Desktop/cyoa/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xian/Dropbox/proj_CYOA/beh_study/z_paper/1_use/github_share/cyoa/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF713A1-CD26-A14B-B20F-F2619DA2B800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9EC00-73BF-7B4D-A6CC-66F13BAFD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40360" yWindow="8140" windowWidth="28800" windowHeight="16420" xr2:uid="{343C9A83-F4D1-6B4B-A269-08CD445AB120}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{343C9A83-F4D1-6B4B-A269-08CD445AB120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="352">
   <si>
     <t>sub</t>
   </si>
@@ -1080,6 +1080,15 @@
   </si>
   <si>
     <t>1,0,1,0,0,1,1,1,1,0,1,1,0,1,0,0,1,0,1,1,0,1,0,0,1,1,1,1,0,0,1,1,1,1,0,0,1,1,0,1,1,1,1,0,1,1,1,1,0,0,1,0,1,1,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,1,1,1,1,0,0,0,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>avg_sent_readtime</t>
+  </si>
+  <si>
+    <t>sum_readtime</t>
+  </si>
+  <si>
+    <t>trans_score</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1DC3C1-B995-3B40-8EDE-15F3C4FDEBF0}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1451,7 @@
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1476,8 +1485,17 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1511,8 +1529,17 @@
       <c r="K2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>3.51</v>
+      </c>
+      <c r="M2">
+        <v>21.9465</v>
+      </c>
+      <c r="N2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1546,8 +1573,17 @@
       <c r="K3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>11.99</v>
+      </c>
+      <c r="M3">
+        <v>74.748999999999995</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1581,8 +1617,17 @@
       <c r="K4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>7.84</v>
+      </c>
+      <c r="M4">
+        <v>53.337166666666668</v>
+      </c>
+      <c r="N4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1616,8 +1661,17 @@
       <c r="K5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>2.25</v>
+      </c>
+      <c r="M5">
+        <v>15.06083333333333</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1651,8 +1705,17 @@
       <c r="K6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>3.87</v>
+      </c>
+      <c r="M6">
+        <v>25.3475</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1686,8 +1749,17 @@
       <c r="K7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>5.12</v>
+      </c>
+      <c r="M7">
+        <v>34.055833333333332</v>
+      </c>
+      <c r="N7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1721,8 +1793,17 @@
       <c r="K8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>3.52</v>
+      </c>
+      <c r="M8">
+        <v>22.34566666666667</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1756,8 +1837,17 @@
       <c r="K9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>5.53</v>
+      </c>
+      <c r="M9">
+        <v>34.840166666666661</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1791,8 +1881,17 @@
       <c r="K10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>3.8</v>
+      </c>
+      <c r="M10">
+        <v>23.763833333333331</v>
+      </c>
+      <c r="N10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1826,8 +1925,17 @@
       <c r="K11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M11">
+        <v>29.02566666666667</v>
+      </c>
+      <c r="N11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1969,17 @@
       <c r="K12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>5.66</v>
+      </c>
+      <c r="M12">
+        <v>35.402000000000001</v>
+      </c>
+      <c r="N12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1896,8 +2013,17 @@
       <c r="K13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>6.38</v>
+      </c>
+      <c r="M13">
+        <v>39.763833333333331</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1931,8 +2057,17 @@
       <c r="K14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>11.37</v>
+      </c>
+      <c r="M14">
+        <v>72.214333333333329</v>
+      </c>
+      <c r="N14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1966,8 +2101,17 @@
       <c r="K15" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>10.81</v>
+      </c>
+      <c r="M15">
+        <v>68.615833333333327</v>
+      </c>
+      <c r="N15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2001,8 +2145,17 @@
       <c r="K16" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>3.39</v>
+      </c>
+      <c r="M16">
+        <v>22.191500000000001</v>
+      </c>
+      <c r="N16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2189,17 @@
       <c r="K17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>3.95</v>
+      </c>
+      <c r="M17">
+        <v>25.878833333333329</v>
+      </c>
+      <c r="N17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2071,8 +2233,17 @@
       <c r="K18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>2.54</v>
+      </c>
+      <c r="M18">
+        <v>17.278333333333329</v>
+      </c>
+      <c r="N18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -2106,8 +2277,17 @@
       <c r="K19" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>4.29</v>
+      </c>
+      <c r="M19">
+        <v>28.659333333333329</v>
+      </c>
+      <c r="N19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2141,8 +2321,17 @@
       <c r="K20" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>5.43</v>
+      </c>
+      <c r="M20">
+        <v>33.8215</v>
+      </c>
+      <c r="N20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2176,8 +2365,17 @@
       <c r="K21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>4.53</v>
+      </c>
+      <c r="M21">
+        <v>30.807166666666671</v>
+      </c>
+      <c r="N21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2211,8 +2409,17 @@
       <c r="K22" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>3.62</v>
+      </c>
+      <c r="M22">
+        <v>22.965166666666669</v>
+      </c>
+      <c r="N22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2246,8 +2453,17 @@
       <c r="K23" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>7.79</v>
+      </c>
+      <c r="M23">
+        <v>49.103333333333332</v>
+      </c>
+      <c r="N23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2281,8 +2497,17 @@
       <c r="K24" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>5.53</v>
+      </c>
+      <c r="M24">
+        <v>36.9285</v>
+      </c>
+      <c r="N24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2316,8 +2541,17 @@
       <c r="K25" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>4.51</v>
+      </c>
+      <c r="M25">
+        <v>28.426666666666669</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2351,8 +2585,17 @@
       <c r="K26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>7.48</v>
+      </c>
+      <c r="M26">
+        <v>49.713000000000001</v>
+      </c>
+      <c r="N26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2386,8 +2629,17 @@
       <c r="K27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>5.61</v>
+      </c>
+      <c r="M27">
+        <v>36.530833333333327</v>
+      </c>
+      <c r="N27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2421,8 +2673,17 @@
       <c r="K28" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
+        <v>24.31816666666667</v>
+      </c>
+      <c r="N28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2456,8 +2717,17 @@
       <c r="K29" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>4.08</v>
+      </c>
+      <c r="M29">
+        <v>27.532</v>
+      </c>
+      <c r="N29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2491,8 +2761,17 @@
       <c r="K30" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>3.41</v>
+      </c>
+      <c r="M30">
+        <v>22.445833333333329</v>
+      </c>
+      <c r="N30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2526,8 +2805,17 @@
       <c r="K31" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>7.88</v>
+      </c>
+      <c r="M31">
+        <v>49.768000000000001</v>
+      </c>
+      <c r="N31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2561,8 +2849,17 @@
       <c r="K32" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>3.23</v>
+      </c>
+      <c r="M32">
+        <v>20.182333333333339</v>
+      </c>
+      <c r="N32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2596,8 +2893,17 @@
       <c r="K33" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>3.52</v>
+      </c>
+      <c r="M33">
+        <v>23.440333333333339</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2631,8 +2937,17 @@
       <c r="K34" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>3.69</v>
+      </c>
+      <c r="M34">
+        <v>24.390333333333331</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2666,8 +2981,17 @@
       <c r="K35" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>6.38</v>
+      </c>
+      <c r="M35">
+        <v>43.084833333333343</v>
+      </c>
+      <c r="N35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2701,8 +3025,17 @@
       <c r="K36" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>3.56</v>
+      </c>
+      <c r="M36">
+        <v>23.166833333333329</v>
+      </c>
+      <c r="N36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2736,8 +3069,17 @@
       <c r="K37" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>3.14</v>
+      </c>
+      <c r="M37">
+        <v>21.206833333333339</v>
+      </c>
+      <c r="N37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2771,8 +3113,17 @@
       <c r="K38" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>2.74</v>
+      </c>
+      <c r="M38">
+        <v>17.104833333333328</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2806,8 +3157,17 @@
       <c r="K39" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>11.46</v>
+      </c>
+      <c r="M39">
+        <v>76.375500000000002</v>
+      </c>
+      <c r="N39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2841,8 +3201,17 @@
       <c r="K40" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>4.34</v>
+      </c>
+      <c r="M40">
+        <v>27.849833333333329</v>
+      </c>
+      <c r="N40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2876,8 +3245,17 @@
       <c r="K41" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>3.51</v>
+      </c>
+      <c r="M41">
+        <v>22.88816666666667</v>
+      </c>
+      <c r="N41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -2911,8 +3289,17 @@
       <c r="K42" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>3.35</v>
+      </c>
+      <c r="M42">
+        <v>22.067666666666661</v>
+      </c>
+      <c r="N42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2946,8 +3333,17 @@
       <c r="K43" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>4.53</v>
+      </c>
+      <c r="M43">
+        <v>30.227833333333329</v>
+      </c>
+      <c r="N43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -2981,8 +3377,17 @@
       <c r="K44" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>2.38</v>
+      </c>
+      <c r="M44">
+        <v>15.753500000000001</v>
+      </c>
+      <c r="N44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3016,8 +3421,17 @@
       <c r="K45" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>4.21</v>
+      </c>
+      <c r="M45">
+        <v>26.297000000000001</v>
+      </c>
+      <c r="N45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3051,8 +3465,17 @@
       <c r="K46" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>8.1</v>
+      </c>
+      <c r="M46">
+        <v>52.771166666666673</v>
+      </c>
+      <c r="N46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3086,8 +3509,17 @@
       <c r="K47" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="M47">
+        <v>57.55</v>
+      </c>
+      <c r="N47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -3121,8 +3553,17 @@
       <c r="K48" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>3.04</v>
+      </c>
+      <c r="M48">
+        <v>20.274000000000001</v>
+      </c>
+      <c r="N48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3156,8 +3597,17 @@
       <c r="K49" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M49">
+        <v>16.124166666666671</v>
+      </c>
+      <c r="N49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -3191,8 +3641,17 @@
       <c r="K50" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>5.63</v>
+      </c>
+      <c r="M50">
+        <v>35.195500000000003</v>
+      </c>
+      <c r="N50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -3226,8 +3685,17 @@
       <c r="K51" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>8.08</v>
+      </c>
+      <c r="M51">
+        <v>52.648833333333329</v>
+      </c>
+      <c r="N51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -3261,8 +3729,17 @@
       <c r="K52" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>5.01</v>
+      </c>
+      <c r="M52">
+        <v>33.409166666666657</v>
+      </c>
+      <c r="N52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3296,8 +3773,17 @@
       <c r="K53" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>12.56</v>
+      </c>
+      <c r="M53">
+        <v>81.817833333333326</v>
+      </c>
+      <c r="N53">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -3331,8 +3817,17 @@
       <c r="K54" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>5.73</v>
+      </c>
+      <c r="M54">
+        <v>38.687666666666672</v>
+      </c>
+      <c r="N54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -3366,8 +3861,17 @@
       <c r="K55" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>8.94</v>
+      </c>
+      <c r="M55">
+        <v>56.469833333333327</v>
+      </c>
+      <c r="N55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>344</v>
       </c>
@@ -3400,6 +3904,15 @@
       </c>
       <c r="K56" t="s">
         <v>348</v>
+      </c>
+      <c r="L56">
+        <v>3.57</v>
+      </c>
+      <c r="M56">
+        <v>22.5245</v>
+      </c>
+      <c r="N56">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
